--- a/DG_Tutorial_Newton/muscle_data.xlsx
+++ b/DG_Tutorial_Newton/muscle_data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem 5 Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\shaked_walker\DG_Tutorial_Newton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A43147-579E-472C-AC5F-2E590B341526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D9AAE-40E0-445A-B76B-D6BDB9B0C68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reiner, Geyer muscle comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="Geyer and Herr muscle data" sheetId="2" r:id="rId2"/>
+    <sheet name="Geyer and Herr muscle data" sheetId="2" r:id="rId1"/>
+    <sheet name="Reiner, Geyer muscle comparison" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Muscle Group</t>
   </si>
@@ -206,119 +206,6 @@
     </r>
   </si>
   <si>
-    <t>Muscle group</t>
-  </si>
-  <si>
-    <t>Maximum force [N]</t>
-  </si>
-  <si>
-    <r>
-      <t>Maximum velocity [l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>opt</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/s]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">opt </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[cm]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>stack­­</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [cm]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">opt </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[m]</t>
-    </r>
-  </si>
-  <si>
-    <t>Maximum velocity [m/s]</t>
-  </si>
-  <si>
     <t>(Geyer-Reiner)</t>
   </si>
   <si>
@@ -340,12 +227,99 @@
   <si>
     <t>REINER SCHEME</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [cm]</t>
+  </si>
+  <si>
+    <t>RF (wang)</t>
+  </si>
+  <si>
+    <t>SOL (Geyer)</t>
+  </si>
+  <si>
+    <t>TA (Geyer)</t>
+  </si>
+  <si>
+    <t>VAS (Geyer)</t>
+  </si>
+  <si>
+    <t>GAS (Geyer)</t>
+  </si>
+  <si>
+    <t>HAM (Geyer)</t>
+  </si>
+  <si>
+    <t>GLU (Geyer)</t>
+  </si>
+  <si>
+    <t>HFL (Geyer)</t>
+  </si>
+  <si>
+    <t>Scaling factors</t>
+  </si>
+  <si>
+    <t>Geyer</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>leg length geyer</t>
+  </si>
+  <si>
+    <t>leg length wang</t>
+  </si>
+  <si>
+    <t>Our leg</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>SOL our</t>
+  </si>
+  <si>
+    <t>TA our</t>
+  </si>
+  <si>
+    <t>VAS our</t>
+  </si>
+  <si>
+    <t>GAS our</t>
+  </si>
+  <si>
+    <t>HAM our</t>
+  </si>
+  <si>
+    <t>RF our</t>
+  </si>
+  <si>
+    <t>GLU our</t>
+  </si>
+  <si>
+    <t>HFL our</t>
+  </si>
+  <si>
+    <t>scale factor</t>
+  </si>
+  <si>
+    <t>must be equal to the length scale of XML properties file. It is used to scale l_opr, l_slack, r and r1 according to leg length</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,41 +355,14 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,16 +445,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -510,30 +461,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,32 +517,39 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,7 +567,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -708,7 +648,7 @@
             <c:numRef>
               <c:f>[1]muscledata!$M$23:$M$31</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1850</c:v>
@@ -801,7 +741,7 @@
             <c:numRef>
               <c:f>[1]muscledata!$U$22:$U$30</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
@@ -892,7 +832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="629684984"/>
@@ -923,7 +863,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -951,7 +891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="629684664"/>
@@ -993,7 +933,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1030,7 +970,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1044,7 +984,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1299,7 +1239,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699028240"/>
@@ -1355,7 +1295,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699026960"/>
@@ -1394,7 +1334,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1438,7 +1378,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1452,7 +1392,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1525,7 +1465,7 @@
             <c:numRef>
               <c:f>[1]muscledata!$AC$22:$AC$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.73</c:v>
@@ -1710,7 +1650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699386832"/>
@@ -1741,7 +1681,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1769,7 +1709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699389072"/>
@@ -1811,7 +1751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1848,7 +1788,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3491,6 +3431,792 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08043F8-B473-459F-853D-4113FE1A4A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3105150"/>
+          <a:ext cx="523875" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Immagine 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FB439A-B688-4E1C-890D-A8BFCA4FE358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3305175"/>
+          <a:ext cx="533400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Immagine 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B95DD4-ED4C-487E-AA43-D5CB17E3B4FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3505200"/>
+          <a:ext cx="504825" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7ABD65C-C4BF-4C86-BA93-BEF0AF97F520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3705225"/>
+          <a:ext cx="600075" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8D6705-1337-4B83-A88B-362FC473F9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4495800"/>
+          <a:ext cx="381000" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8482C8C4-7591-4539-A0A0-BC4F89CF7A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="638175" y="1390650"/>
+          <a:ext cx="114300" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Immagine 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC47E9C-6753-40CA-AFAA-F13E3E445585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4895850"/>
+          <a:ext cx="76200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Immagine 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A36AC6-5EF5-4CA0-8A67-D98AA46B2073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5095875"/>
+          <a:ext cx="314325" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Immagine 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D31C0C7-EBD3-4D16-8F01-385E085DEFBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5295900"/>
+          <a:ext cx="276225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Immagine 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E51806-5EF8-4CB5-8549-0C83B61B2CCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5495925"/>
+          <a:ext cx="314325" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Immagine 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EF0D56-B03C-4723-85DB-15A0E406D92B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5695950"/>
+          <a:ext cx="276225" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4147,357 +4873,1082 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B92C390-BDA8-4CD8-A4CB-20F3D30E789C}">
+  <dimension ref="B1:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
+      <c r="D2">
+        <v>800</v>
+      </c>
+      <c r="E2">
+        <v>6000</v>
+      </c>
+      <c r="F2">
+        <v>1500</v>
+      </c>
+      <c r="G2">
+        <v>3000</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>1500</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="21">
+        <f>C2</f>
+        <v>4000</v>
+      </c>
+      <c r="L2" s="21">
+        <f t="shared" ref="L2:R3" si="0">D2</f>
+        <v>800</v>
+      </c>
+      <c r="M2" s="21">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="N2" s="21">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="O2" s="21">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="P2" s="21">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="21">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="R2" s="21">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" s="21">
+        <f>C3</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R3" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7.5</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4" s="22">
+        <f>C4*$C$16</f>
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" ref="L4:R5" si="1">D4*$C$16</f>
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="M4" s="22">
+        <f t="shared" si="1"/>
+        <v>6.8479999999999999</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="1"/>
+        <v>4.28</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" si="1"/>
+        <v>8.56</v>
+      </c>
+      <c r="P4" s="22">
+        <f>H4*$C$17</f>
+        <v>7.6428571428571423</v>
+      </c>
+      <c r="Q4" s="22">
+        <f t="shared" si="1"/>
+        <v>9.4160000000000004</v>
+      </c>
+      <c r="R4" s="22">
+        <f t="shared" si="1"/>
+        <v>9.4160000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>28.1</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" s="22">
+        <f>C5*$C$16</f>
+        <v>22.256</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="1"/>
+        <v>20.544</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="1"/>
+        <v>19.687999999999999</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="1"/>
+        <v>34.24</v>
+      </c>
+      <c r="O5" s="22">
+        <f t="shared" si="1"/>
+        <v>26.535999999999998</v>
+      </c>
+      <c r="P5" s="22">
+        <f>H5*$C$17</f>
+        <v>28.635238095238094</v>
+      </c>
+      <c r="Q5" s="22">
+        <f t="shared" si="1"/>
+        <v>11.128</v>
+      </c>
+      <c r="R5" s="22">
+        <f t="shared" si="1"/>
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>0.7</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="22">
+        <f>C6</f>
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" ref="L6:R6" si="2">D6</f>
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>9.4</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="22">
+        <f>C7*$C$16</f>
+        <v>4.28</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" ref="L7:R8" si="3">D7*$C$16</f>
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="M7" s="22">
+        <f t="shared" si="3"/>
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="N7" s="22">
+        <f t="shared" si="3"/>
+        <v>4.28</v>
+      </c>
+      <c r="O7" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8479999999999999</v>
+      </c>
+      <c r="P7" s="22">
+        <f>H7*$C$17</f>
+        <v>9.5790476190476195</v>
+      </c>
+      <c r="Q7" s="22">
+        <f t="shared" si="3"/>
+        <v>8.56</v>
+      </c>
+      <c r="R7" s="22">
+        <f t="shared" si="3"/>
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5.6</v>
+      </c>
+      <c r="K8" s="22">
+        <f>C8*$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="3"/>
+        <v>4.28</v>
+      </c>
+      <c r="O8" s="22">
+        <f t="shared" si="3"/>
+        <v>4.28</v>
+      </c>
+      <c r="P8" s="22">
+        <f>H8*$C$17</f>
+        <v>5.7066666666666661</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>165</v>
+      </c>
+      <c r="F9">
+        <v>140</v>
+      </c>
+      <c r="K9" s="21">
+        <f>C9</f>
+        <v>110</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" ref="L9:R12" si="4">D9</f>
+        <v>80</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>165</v>
+      </c>
+      <c r="G10">
+        <v>155</v>
+      </c>
+      <c r="H10">
+        <v>180</v>
+      </c>
+      <c r="I10">
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <v>180</v>
+      </c>
+      <c r="K10" s="21">
+        <f>C10</f>
+        <v>80</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="O10" s="21">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="P10" s="21">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="R10" s="21">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>110</v>
+      </c>
+      <c r="G11">
+        <v>180</v>
+      </c>
+      <c r="H11">
+        <v>165</v>
+      </c>
+      <c r="K11" s="21">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="Q11" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>180</v>
+      </c>
+      <c r="H12">
+        <v>125</v>
+      </c>
+      <c r="K12" s="21">
+        <f>C12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="21">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="Q12" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <f>F18/F16</f>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <f>F18/F17</f>
+        <v>1.019047619047619</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <f>0.42+0.42</f>
+        <v>0.84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <f>F19*(0.422+0.434)</f>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>38</v>
+      <c r="I1" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>1850</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>150</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>0.15</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="11">
         <f>N2/100-F3</f>
         <v>-0.15</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="12">
         <v>0.73</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="11">
         <f>M2/100-H3</f>
         <v>-0.73</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="15">
         <v>2370</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <f>L3-D4</f>
         <v>-2370</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="14">
         <v>0.11</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="11">
         <f>N3/100-F4</f>
         <v>-0.11</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="16">
         <v>0.54</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <f t="shared" ref="I4:I10" si="0">M3/100-H4</f>
         <v>-0.54</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="9">
         <v>2190</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <f t="shared" ref="E5:E11" si="1">L4-D5</f>
         <v>-2190</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="7">
         <v>0.12</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="11">
         <f>N4/100-F5</f>
         <v>-0.12</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="12">
         <v>0.48</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>-0.48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="15">
         <v>400</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="14">
         <v>0.17</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="16">
         <v>0.69</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="9">
         <v>1000</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="7">
         <v>0.09</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="11">
         <v>0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="12">
         <v>0.51</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="15">
         <v>5200</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>-5200</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="14">
         <v>0.09</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <f>N7/100-F8</f>
         <v>-0.09</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="16">
         <v>0.48</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>-0.48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="9">
         <v>1600</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>-1600</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <v>0.05</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="11">
         <f>N8/100-F9</f>
         <v>-0.05</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="12">
         <v>0.32</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>-0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="15">
         <v>3600</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <f t="shared" si="1"/>
         <v>-3600</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="14">
         <v>0.03</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="11">
         <f>N9/100-F10</f>
         <v>-0.03</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="16">
         <v>0.1</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="9">
         <v>1100</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>-1100</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="7">
         <v>0.09</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="11">
         <f>N10/100-F11</f>
         <v>-0.09</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="11">
         <v>-0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4510,263 +5961,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B92C390-BDA8-4CD8-A4CB-20F3D30E789C}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="58.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="28">
-        <v>2000</v>
-      </c>
-      <c r="C2" s="29">
-        <v>12</v>
-      </c>
-      <c r="D2" s="29">
-        <v>11</v>
-      </c>
-      <c r="E2" s="29">
-        <v>10</v>
-      </c>
-      <c r="F2" s="30">
-        <f t="shared" ref="F2:F10" si="0">D2/100</f>
-        <v>0.11</v>
-      </c>
-      <c r="G2" s="30">
-        <f>C2/100</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="31">
-        <v>1500</v>
-      </c>
-      <c r="C3" s="32">
-        <v>12</v>
-      </c>
-      <c r="D3" s="32">
-        <v>11</v>
-      </c>
-      <c r="E3" s="32">
-        <v>13</v>
-      </c>
-      <c r="F3" s="30">
-        <f t="shared" si="0"/>
-        <v>0.11</v>
-      </c>
-      <c r="G3" s="30">
-        <f t="shared" ref="G3:G10" si="1">C3/100</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="28">
-        <v>3000</v>
-      </c>
-      <c r="C4" s="29">
-        <v>12</v>
-      </c>
-      <c r="D4" s="29">
-        <v>10</v>
-      </c>
-      <c r="E4" s="29">
-        <v>31</v>
-      </c>
-      <c r="F4" s="30">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="30">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="31">
-        <v>6000</v>
-      </c>
-      <c r="C7" s="32">
-        <v>12</v>
-      </c>
-      <c r="D7" s="32">
-        <v>8</v>
-      </c>
-      <c r="E7" s="32">
-        <v>23</v>
-      </c>
-      <c r="F7" s="30">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="G7" s="30">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="28">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="29">
-        <v>12</v>
-      </c>
-      <c r="D8" s="29">
-        <v>5</v>
-      </c>
-      <c r="E8" s="29">
-        <v>40</v>
-      </c>
-      <c r="F8" s="30">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="30">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="28">
-        <v>4000</v>
-      </c>
-      <c r="C9" s="29">
-        <v>6</v>
-      </c>
-      <c r="D9" s="29">
-        <v>4</v>
-      </c>
-      <c r="E9" s="29">
-        <v>26</v>
-      </c>
-      <c r="F9" s="30">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-      <c r="G9" s="30">
-        <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="31">
-        <v>800</v>
-      </c>
-      <c r="C10" s="32">
-        <v>12</v>
-      </c>
-      <c r="D10" s="32">
-        <v>6</v>
-      </c>
-      <c r="E10" s="32">
-        <v>24</v>
-      </c>
-      <c r="F10" s="30">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>